--- a/src/test/resources/testdata/hrmsData.xlsx
+++ b/src/test/resources/testdata/hrmsData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syntax/IdeaProjects/Batch8/TestNGFramework/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B54C702-AF2D-B840-BD3E-6C95CBB991F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2664462E-87FD-7444-B435-B7CBC2C9CC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39020" yWindow="1420" windowWidth="28040" windowHeight="17440" xr2:uid="{53509503-1079-7E48-9663-DB6D2F02B34E}"/>
+    <workbookView xWindow="35780" yWindow="460" windowWidth="38320" windowHeight="20320" xr2:uid="{53509503-1079-7E48-9663-DB6D2F02B34E}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
     <sheet name="LoginData" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="JobTitle" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -105,7 +105,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -452,17 +452,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="22" style="1"/>
     <col min="4" max="4" width="82.1640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="22" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -551,7 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE6E91E-57CC-5E4A-8C1C-376858255C39}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -563,7 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC49F7BE-C3BB-CD4A-882F-93C60FC6225E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
